--- a/proyecto/tablas proyecto.xlsx
+++ b/proyecto/tablas proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\epile\Desktop\ITESO\6to Semestre\Simulación de Procesos Financieros\Simulacion_Procesos_Financieros\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F79C8A91-8384-4CDA-B67F-2C1E277445C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE61C72-9257-45DA-963E-2CD1B2B62300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F94A1C34-F369-4770-9DAB-6D32B1CE2C0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Métrica</t>
   </si>
@@ -123,6 +123,27 @@
   </si>
   <si>
     <t>Resultados en USD del Collar Hedge</t>
+  </si>
+  <si>
+    <t>IC 95% P&amp;L (%)</t>
+  </si>
+  <si>
+    <t>-4.84%&lt;&lt;5.16%</t>
+  </si>
+  <si>
+    <t>-4.10%&lt;&lt;5.71%</t>
+  </si>
+  <si>
+    <t>-1.51%&lt;&lt;8.49%</t>
+  </si>
+  <si>
+    <t>-4.81%&lt;&lt;5.19%</t>
+  </si>
+  <si>
+    <t>-4.22%&lt;&lt;5.78%</t>
+  </si>
+  <si>
+    <t>-1.38%&lt;&lt;8.62%</t>
   </si>
 </sst>
 </file>
@@ -132,9 +153,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +205,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -490,27 +517,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -527,81 +536,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -611,18 +563,12 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -639,12 +585,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,6 +604,103 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1007,366 +1044,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08047141-FCD3-495F-95CC-5F2F32AC195C}">
-  <dimension ref="F3:L26"/>
+  <dimension ref="C3:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H19"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="11.42578125" style="1"/>
     <col min="6" max="6" width="24" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
+    <col min="8" max="12" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="6:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="2" t="s">
+    <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="6:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="14" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
+    </row>
+    <row r="5" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="5" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="17"/>
-      <c r="G6" s="8" t="s">
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+    </row>
+    <row r="6" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="33"/>
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="18" t="s">
+    <row r="7" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="51">
         <v>162.57</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="34">
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="42">
         <v>345.5</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-    </row>
-    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F8" s="12" t="s">
+      <c r="K7" s="43"/>
+      <c r="L7" s="44"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="54">
         <v>154.44</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="37">
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="45">
         <v>328.22</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="13" t="s">
+      <c r="K8" s="46"/>
+      <c r="L8" s="47"/>
+    </row>
+    <row r="9" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="39">
         <v>170.7</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="31">
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="39">
         <v>362.78</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
-    </row>
-    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F10" s="12" t="s">
+      <c r="K9" s="40"/>
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="57">
+        <f>+J7</f>
+        <v>345.5</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="17">
         <v>0.47</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="18">
         <v>1.7</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="14">
         <v>4.53</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="17">
         <v>1.38</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="18">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="14">
         <v>11.69</v>
       </c>
     </row>
-    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F11" s="16" t="s">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="57">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="F11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="19">
         <v>0.73</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="20">
         <v>2.86</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="21">
         <v>10.220000000000001</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="19">
         <v>2.0299999999999998</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="20">
         <v>7.24</v>
       </c>
-      <c r="L11" s="48">
+      <c r="L11" s="21">
         <v>24.21</v>
       </c>
     </row>
-    <row r="12" spans="6:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="13" t="s">
+    <row r="12" spans="3:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="15">
         <f>+G11-G10</f>
         <v>0.26</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="16">
         <f t="shared" ref="H12:L12" si="0">+H11-H10</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="13">
         <f t="shared" si="0"/>
         <v>5.69</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="15">
         <f t="shared" si="0"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="16">
         <f t="shared" si="0"/>
         <v>2.6800000000000006</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="13">
         <f t="shared" si="0"/>
         <v>12.520000000000001</v>
       </c>
     </row>
-    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F13" s="12" t="s">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="17">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="18">
         <v>1.71</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="14">
         <v>6.58</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="17">
         <v>1.23</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="18">
         <v>3.46</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="14">
         <v>14.48</v>
       </c>
     </row>
-    <row r="14" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="13" t="s">
+    <row r="14" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <f>+C11/C10</f>
+        <v>-7.0911722141823452E-3</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="22">
         <f>(G13/$G$7)</f>
         <v>3.4446699883127273E-3</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="23">
         <f>(H13/$G$7)</f>
         <v>1.051854585716922E-2</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="24">
         <f>(I13/$G$7)</f>
         <v>4.0474872362674545E-2</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="22">
         <f>(J13/$J$7)</f>
         <v>3.5600578871201158E-3</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="23">
         <f>(K13/$J$7)</f>
         <v>1.0014471780028943E-2</v>
       </c>
-      <c r="L14" s="51">
+      <c r="L14" s="24">
         <f t="shared" ref="L14" si="1">(L13/$J$7)</f>
         <v>4.1910274963820549E-2</v>
       </c>
     </row>
-    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="16" t="s">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="13" t="s">
+    <row r="16" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G17" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H17" s="11">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I17" s="12">
         <v>0.62</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J17" s="10">
         <v>0.53500000000000003</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K17" s="11">
         <v>0.54</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L17" s="12">
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="20" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="2" t="s">
+    <row r="21" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="6:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F23" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G23" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H23" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="15"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="53"/>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="12" t="s">
+    <row r="24" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G25" s="25">
         <v>162.57</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H25" s="26">
         <v>345.5</v>
       </c>
     </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="16" t="s">
+    <row r="26" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="58">
+      <c r="G26" s="29">
         <v>0.16500000000000001</v>
       </c>
-      <c r="H25" s="56">
+      <c r="H26" s="27">
         <v>0.18310000000000001</v>
       </c>
     </row>
-    <row r="26" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="13" t="s">
+    <row r="27" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="59">
+      <c r="G27" s="30">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H27" s="28">
         <v>0.24529999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>